--- a/files/Salespeople.xlsx
+++ b/files/Salespeople.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20358"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\knaughton\OneDrive - Innovia Consulting\Internal\Home Food Market\Exercises\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ksayer\source\repos\Advanced-Power-BI-Exercises\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="33" documentId="8_{A9D3285E-7177-440C-93A5-542B4A76D778}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{BFF089CB-E8B7-4181-B8BB-716CBA75AB7F}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1980697-17DB-4EE4-AB73-D17A60E33B4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1080" yWindow="-15120" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SalespeoplePurchasers" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>AH</t>
   </si>
@@ -71,13 +71,37 @@
   </si>
   <si>
     <t>Commission</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>annetteh@sample.com</t>
+  </si>
+  <si>
+    <t>barth@sample.com</t>
+  </si>
+  <si>
+    <t>debrah@sample.com</t>
+  </si>
+  <si>
+    <t>johnh@sample.com</t>
+  </si>
+  <si>
+    <t>maryh@sample.com</t>
+  </si>
+  <si>
+    <t>peterh@sample.com</t>
+  </si>
+  <si>
+    <t>richardh@sample.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -110,6 +134,14 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -128,18 +160,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
@@ -258,12 +294,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B27B554C-D9CC-4F43-A6BB-5F20A3ADFD35}" name="SalesPeople" displayName="SalesPeople" ref="A1:C8" totalsRowShown="0" headerRowDxfId="3">
-  <autoFilter ref="A1:C8" xr:uid="{D24965E0-1E78-4D54-B63A-45D4C053972B}"/>
-  <tableColumns count="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B27B554C-D9CC-4F43-A6BB-5F20A3ADFD35}" name="SalesPeople" displayName="SalesPeople" ref="A1:D8" totalsRowShown="0" headerRowDxfId="3">
+  <autoFilter ref="A1:D8" xr:uid="{D24965E0-1E78-4D54-B63A-45D4C053972B}"/>
+  <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{BFB94824-2403-4AD1-88D1-2FA23897DCDF}" name="Code" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{50F2BFB0-8835-4B29-A7ED-C57BE0FBED4D}" name="Sales Person" dataDxfId="1"/>
     <tableColumn id="3" xr3:uid="{7ED75F89-8214-4740-8015-90B005913AAD}" name="Commission" dataDxfId="0" dataCellStyle="Percent"/>
+    <tableColumn id="4" xr3:uid="{57DAF733-D2E3-4699-97FD-AEAD9D108315}" name="email"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -566,10 +603,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C2:C8"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -577,10 +614,10 @@
     <col min="1" max="1" width="7.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>15</v>
       </c>
@@ -590,8 +627,11 @@
       <c r="C1" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="D1" s="5" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -601,8 +641,11 @@
       <c r="C2" s="3">
         <v>0.04</v>
       </c>
+      <c r="D2" s="6" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -612,8 +655,11 @@
       <c r="C3" s="3">
         <v>0.04</v>
       </c>
+      <c r="D3" s="6" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -623,8 +669,11 @@
       <c r="C4" s="3">
         <v>4.4999999999999998E-2</v>
       </c>
+      <c r="D4" s="6" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -634,8 +683,11 @@
       <c r="C5" s="3">
         <v>0.05</v>
       </c>
+      <c r="D5" s="6" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -645,8 +697,11 @@
       <c r="C6" s="3">
         <v>0.05</v>
       </c>
+      <c r="D6" s="6" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -656,8 +711,11 @@
       <c r="C7" s="3">
         <v>0.05</v>
       </c>
+      <c r="D7" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
@@ -667,16 +725,34 @@
       <c r="C8" s="3">
         <v>3.5000000000000003E-2</v>
       </c>
+      <c r="D8" s="6" t="s">
+        <v>24</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{21C6A9C8-A020-4196-A2E8-A169063D2A64}"/>
+    <hyperlink ref="D3" r:id="rId2" xr:uid="{D810522D-8813-44E8-9156-15B08CCBB576}"/>
+    <hyperlink ref="D4" r:id="rId3" xr:uid="{535B5AF0-8FAE-43B4-A6B5-2F97597DCBDF}"/>
+    <hyperlink ref="D5" r:id="rId4" xr:uid="{9CC00832-244D-43BD-AC91-CA6B270E2C7B}"/>
+    <hyperlink ref="D6" r:id="rId5" xr:uid="{D112553D-C301-412F-B56E-976E41A1AC7B}"/>
+    <hyperlink ref="D7" r:id="rId6" xr:uid="{4E48E6CD-1376-4CB8-86DA-1F2A4F7B4982}"/>
+    <hyperlink ref="D8" r:id="rId7" xr:uid="{EE7AA1D3-66BA-4446-83C3-DE9504CB526A}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId8"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C3ADDB5F45116E40A578B1D47D215C3A" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2a35483e3fbedd45c71ddae4114e02d4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="65cad8c8-aac2-4744-9ad8-5e08a9ac105c" xmlns:ns3="3ce90505-5936-4d70-ac62-7051a113caa9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="73bf7e600570ab6a9a1ceb41dcb0c260" ns2:_="" ns3:_="">
     <xsd:import namespace="65cad8c8-aac2-4744-9ad8-5e08a9ac105c"/>
@@ -893,12 +969,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -909,10 +979,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{30681EE2-E93F-4406-8001-B02946004E63}"/>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ACE6F327-2A33-484A-9C7C-814A269B0145}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
@@ -929,6 +995,25 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{30681EE2-E93F-4406-8001-B02946004E63}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="65cad8c8-aac2-4744-9ad8-5e08a9ac105c"/>
+    <ds:schemaRef ds:uri="3ce90505-5936-4d70-ac62-7051a113caa9"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{78EE4A57-F1EB-4953-A696-A173B420EC4A}">
   <ds:schemaRefs>

--- a/files/Salespeople.xlsx
+++ b/files/Salespeople.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ksayer\source\repos\Advanced-Power-BI-Exercises\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1980697-17DB-4EE4-AB73-D17A60E33B4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B5747BA-B33C-4F3F-8E26-2D79F52926B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="-15120" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SalespeoplePurchasers" sheetId="1" r:id="rId1"/>
@@ -76,9 +76,6 @@
     <t>email</t>
   </si>
   <si>
-    <t>annetteh@sample.com</t>
-  </si>
-  <si>
     <t>barth@sample.com</t>
   </si>
   <si>
@@ -95,6 +92,9 @@
   </si>
   <si>
     <t>richardh@sample.com</t>
+  </si>
+  <si>
+    <t>ksayer@innovia.com</t>
   </si>
 </sst>
 </file>
@@ -606,7 +606,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="V14" sqref="V14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -642,7 +642,7 @@
         <v>0.04</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -656,7 +656,7 @@
         <v>0.04</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -670,7 +670,7 @@
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -684,7 +684,7 @@
         <v>0.05</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -698,7 +698,7 @@
         <v>0.05</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -712,7 +712,7 @@
         <v>0.05</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -726,7 +726,7 @@
         <v>3.5000000000000003E-2</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -747,12 +747,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C3ADDB5F45116E40A578B1D47D215C3A" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2a35483e3fbedd45c71ddae4114e02d4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="65cad8c8-aac2-4744-9ad8-5e08a9ac105c" xmlns:ns3="3ce90505-5936-4d70-ac62-7051a113caa9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="73bf7e600570ab6a9a1ceb41dcb0c260" ns2:_="" ns3:_="">
     <xsd:import namespace="65cad8c8-aac2-4744-9ad8-5e08a9ac105c"/>
@@ -969,6 +963,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -979,23 +979,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ACE6F327-2A33-484A-9C7C-814A269B0145}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="d6068b8b-c4b0-4bcc-ade5-fec727af2863"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="d6c8effc-4e2a-4513-aad4-7e1c324f6b68"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{30681EE2-E93F-4406-8001-B02946004E63}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1014,6 +997,23 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ACE6F327-2A33-484A-9C7C-814A269B0145}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="d6068b8b-c4b0-4bcc-ade5-fec727af2863"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="d6c8effc-4e2a-4513-aad4-7e1c324f6b68"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{78EE4A57-F1EB-4953-A696-A173B420EC4A}">
   <ds:schemaRefs>
